--- a/Dividend Payout Ratio Net Profit.xlsx
+++ b/Dividend Payout Ratio Net Profit.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="4" sheetId="1" r:id="rId1"/>
+    <sheet name="5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
